--- a/Team 6-11.xlsx
+++ b/Team 6-11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="48">
   <si>
     <t>comments</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>Vivek Sharma</t>
-  </si>
-  <si>
-    <t>A bit longer with an example might have been optimal.</t>
   </si>
   <si>
     <t>Very less illustrations</t>
@@ -168,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -740,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="M13" sqref="L13:M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P107" sqref="P107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,199 +933,9 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="19">
-        <v>28</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-    </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1138,7 +945,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1148,7 +955,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1158,7 +965,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1220,56 +1027,58 @@
       <c r="E44" s="20"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20" t="s">
-        <v>11</v>
-      </c>
+      <c r="B45" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="20"/>
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
-      <c r="F45" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20" t="s">
+        <v>11</v>
+      </c>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20" t="s">
+        <v>11</v>
+      </c>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
-      <c r="F47" s="4"/>
+      <c r="F47" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20" t="s">
-        <v>11</v>
-      </c>
+      <c r="B48" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="20"/>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
       <c r="F48" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -1277,13 +1086,13 @@
         <v>7</v>
       </c>
       <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
+      <c r="C49" s="20" t="s">
+        <v>11</v>
+      </c>
       <c r="D49" s="20"/>
-      <c r="E49" s="20" t="s">
-        <v>11</v>
-      </c>
+      <c r="E49" s="20"/>
       <c r="F49" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1299,194 +1108,36 @@
         <v>8</v>
       </c>
       <c r="B51" s="19">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
     </row>
-    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="1">
-        <v>4</v>
-      </c>
-      <c r="C58" s="1">
-        <v>3</v>
-      </c>
-      <c r="D58" s="1">
-        <v>2</v>
-      </c>
-      <c r="E58" s="1">
-        <v>1</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="13"/>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" s="19">
+    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="16"/>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>42</v>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -1496,67 +1147,69 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-    </row>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A73" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="1">
+        <v>4</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="4"/>
+    </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" s="1">
-        <v>4</v>
-      </c>
-      <c r="C75" s="1">
-        <v>3</v>
-      </c>
-      <c r="D75" s="1">
+      <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E75" s="1">
-        <v>1</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="B75" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="4"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20" t="s">
-        <v>11</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="20"/>
       <c r="D76" s="20"/>
       <c r="E76" s="20"/>
-      <c r="F76" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="F76" s="4"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B77" s="20" t="s">
         <v>11</v>
@@ -1568,7 +1221,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B78" s="20" t="s">
         <v>11</v>
@@ -1578,89 +1231,421 @@
       <c r="E78" s="20"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20" t="s">
-        <v>11</v>
-      </c>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="20"/>
       <c r="D79" s="20"/>
       <c r="E79" s="20"/>
-      <c r="F79" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="F79" s="4"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="20"/>
+      <c r="A80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20" t="s">
+        <v>11</v>
+      </c>
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
-      <c r="F80" s="4"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="F80" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="14"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="13"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="19">
+        <v>28</v>
+      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="16"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>4</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1">
+        <v>2</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="4" t="s">
+      <c r="B96" s="20"/>
+      <c r="C96" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="14"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="13"/>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="19">
+        <v>29</v>
+      </c>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="16"/>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="1">
+        <v>4</v>
+      </c>
+      <c r="C108" s="1">
+        <v>3</v>
+      </c>
+      <c r="D108" s="1">
+        <v>2</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="20"/>
+      <c r="C109" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="20"/>
+      <c r="C112" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="4"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="20"/>
+      <c r="C114" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B82" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="4"/>
-    </row>
-    <row r="83" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+      <c r="B115" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="4"/>
+    </row>
+    <row r="116" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B83" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="4"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="13"/>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="17" t="s">
+      <c r="B116" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="14"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="13"/>
+    </row>
+    <row r="118" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="19">
+      <c r="B118" s="19">
         <v>29</v>
       </c>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="16"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="16"/>
     </row>
   </sheetData>
   <dataConsolidate/>
